--- a/xlsx/ca-Amical Wikimedia_intext.xlsx
+++ b/xlsx/ca-Amical Wikimedia_intext.xlsx
@@ -29,7 +29,7 @@
     <t>Associació</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_ca-Amical Wikimedia</t>
+    <t>政策_政策_维基百科_ca-Amical Wikimedia</t>
   </si>
   <si>
     <t>https://ca.wikipedia.org/wiki/Casa_Orlandai</t>
